--- a/Czas sorotwania.xlsx
+++ b/Czas sorotwania.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programowanie\GitHub\Sortowanie-czas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5210648-7E27-42D9-B969-3211C25C5A8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3ED1CC-22D1-441C-9C11-85D22F6E29D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2BC18354-FA50-403D-B329-277B5DD5769E}"/>
   </bookViews>
@@ -211,7 +211,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Rosnąco</a:t>
+              <a:t>Optymistycznie</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -957,7 +957,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Malejąco</a:t>
+              <a:t>Pesymistycznie</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4089,13 +4089,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
@@ -4794,7 +4794,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4932,7 +4932,7 @@
   <dimension ref="E2:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
